--- a/mosip_master/xlsx/zone_user_h.xlsx
+++ b/mosip_master/xlsx/zone_user_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC2\Intellij-Project\mec2-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF1852-D84B-4180-83B4-1EDB24753668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCD01A-136A-4736-9710-85F30317577E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>lang_code</t>
   </si>
@@ -45,9 +45,6 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
@@ -55,6 +52,63 @@
   </si>
   <si>
     <t>service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>krish</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>rounak</t>
+  </si>
+  <si>
+    <t>trialblazerseee</t>
+  </si>
+  <si>
+    <t>muralitharan</t>
+  </si>
+  <si>
+    <t>iritech</t>
+  </si>
+  <si>
+    <t>suprema</t>
+  </si>
+  <si>
+    <t>partnerib01</t>
+  </si>
+  <si>
+    <t>Tech5</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>sasi</t>
+  </si>
+  <si>
+    <t>nivetha</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>taru</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>rajashreeo</t>
+  </si>
+  <si>
+    <t>rediet</t>
+  </si>
+  <si>
+    <t>radmin</t>
   </si>
 </sst>
 </file>
@@ -437,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,38 +521,378 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>110070</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>110080</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/zone_user_h.xlsx
+++ b/mosip_master/xlsx/zone_user_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\Chithara27-fork\MEC-PROD-Mosip-data excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF1852-D84B-4180-83B4-1EDB24753668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F5AF5E-580A-4E8D-B772-2AF9F88C524A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="55">
   <si>
     <t>lang_code</t>
   </si>
@@ -45,16 +45,151 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>rediet</t>
+  </si>
+  <si>
+    <t>Service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>trialblazerseee</t>
+  </si>
+  <si>
+    <t>kannan</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>rajashree</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>nambi</t>
+  </si>
+  <si>
+    <t>taru</t>
+  </si>
+  <si>
+    <t>muralitharan</t>
+  </si>
+  <si>
+    <t>GAMB</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>STH</t>
+  </si>
+  <si>
+    <t>lokesh</t>
+  </si>
+  <si>
+    <t>nivetha</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>srinivas</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>prasad</t>
+  </si>
+  <si>
+    <t>vishnu</t>
+  </si>
+  <si>
+    <t>KAR</t>
+  </si>
+  <si>
+    <t>nivi</t>
+  </si>
+  <si>
+    <t>shubham</t>
+  </si>
+  <si>
+    <t>paras</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>krish</t>
+  </si>
+  <si>
+    <t>rounak</t>
+  </si>
+  <si>
+    <t>resham</t>
+  </si>
+  <si>
+    <t>nivetha22</t>
+  </si>
+  <si>
+    <t>anjali20</t>
+  </si>
+  <si>
+    <t>aneesh</t>
+  </si>
+  <si>
+    <t>ankushsuprema</t>
+  </si>
+  <si>
+    <t>antony</t>
+  </si>
+  <si>
+    <t>getgroup</t>
+  </si>
+  <si>
+    <t>digitalid</t>
+  </si>
+  <si>
+    <t>mantra</t>
   </si>
 </sst>
 </file>
@@ -114,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -123,6 +258,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,68 +573,2782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44776.354908298614</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>44776.35493296296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44776.354908298614</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>44776.35493296296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44776.69948210648</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44776.705010868056</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>44776.705011018516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1103</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44777.182873101854</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>44777.18287340278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1103</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44777.182873101854</v>
+      </c>
+      <c r="G6">
+        <v>1103</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44777.182971099537</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>44777.182971099537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1103</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44777.224554247689</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>44777.224554490742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1103</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44777.224554247689</v>
+      </c>
+      <c r="G8">
+        <v>1103</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44777.224650763892</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>44777.224650763892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44777.35277391204</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44777.352773981482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44777.35277391204</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44777.352901863429</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44777.352901863429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44777.35277391204</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44777.355886435187</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>44777.355886481484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44777.403952337962</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>44777.4039524537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44777.403952337962</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44777.404103958332</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>44777.404103958332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1103</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44783.357215173608</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>44783.357215300923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1103</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44783.357215173608</v>
+      </c>
+      <c r="G15">
+        <v>1103</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44783.357324363424</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>44783.357324363424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1702</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44785.519239131943</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>44785.519239189816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1702</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44785.519239131943</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44785.519716388888</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>44785.519716388888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44789.591448472223</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>44789.591448553241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44789.591448472223</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4">
+        <v>44789.591639039354</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>44789.591639039354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1103</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44777.182873101854</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4">
+        <v>44789.687694513887</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>44789.68769460648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44790.213012511573</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>44790.213013321758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44790.213012511573</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44790.213119074077</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>44790.213119074077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44790.537154930556</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>44790.537155011574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44790.537154930556</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>44790.537258368058</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>44790.537258368058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1103</v>
+      </c>
+      <c r="F25" s="4">
+        <v>44791.494652407404</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>44791.494652488429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1103</v>
+      </c>
+      <c r="F26" s="4">
+        <v>44791.494652407404</v>
+      </c>
+      <c r="G26">
+        <v>1103</v>
+      </c>
+      <c r="H26" s="4">
+        <v>44791.495473043979</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>44791.495473113428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1103</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44791.494652407404</v>
+      </c>
+      <c r="G27">
+        <v>1103</v>
+      </c>
+      <c r="H27" s="4">
+        <v>44791.495969224539</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>44791.495969224539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>1122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44792.42844614583</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>44792.428446307873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4">
+        <v>44792.42844614583</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="4">
+        <v>44792.428594328703</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>44792.428594328703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44792.446475902776</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>44792.446475983794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4">
+        <v>44792.446475902776</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4">
+        <v>44792.446570092594</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>44792.446570092594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44792.453184120372</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>44792.453184201389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4">
+        <v>44792.453184120372</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4">
+        <v>44792.453261712966</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>44792.453261712966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4">
+        <v>44806.525851516206</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>44806.525852777777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="4">
+        <v>44806.525851516206</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4">
+        <v>44806.526538229169</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>44806.526538229169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4">
+        <v>44811.3929078125</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>44811.392908032409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4">
+        <v>44811.3929078125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4">
+        <v>44811.394264479168</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>44811.394264479168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>110070</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="4">
+        <v>44820.34465190972</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>44820.344652187501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>110070</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="4">
+        <v>44820.34465190972</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="4">
+        <v>44820.344787476854</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>44820.344787476854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="4">
+        <v>44823.246821006942</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>44823.246821076391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="4">
+        <v>44823.246821006942</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="4">
+        <v>44823.249035219909</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>44823.249035219909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="4">
+        <v>44825.452079768518</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>44825.45207983796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="4">
+        <v>44825.452079768518</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="4">
+        <v>44825.452210104166</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>44825.452210104166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4">
+        <v>44826.532659166667</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>44826.532661400466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="4">
+        <v>44826.532659166667</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="4">
+        <v>44826.5327875</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>44826.5327875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="4">
+        <v>44911.535248761575</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>44911.535248946762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4">
+        <v>44911.535248761575</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="4">
+        <v>44911.5360153125</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>44911.5360153125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="4">
+        <v>44911.535248761575</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="4">
+        <v>44911.539355416666</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>44911.539355497684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="4">
+        <v>44921.438392581018</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>44921.438393287041</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4">
+        <v>44921.438392581018</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="4">
+        <v>44921.438491516201</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>44921.438491516201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="4">
+        <v>44921.438392581018</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="4">
+        <v>44921.484772303244</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>44921.484772361109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4">
+        <v>44921.438392581018</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="4">
+        <v>44921.485149062501</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>44921.485149120374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4">
+        <v>44922.253557349541</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>44922.253557442127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="4">
+        <v>44922.253557349541</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="4">
+        <v>44922.253668090278</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>44922.253668090278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="4">
+        <v>44777.35277391204</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="4">
+        <v>44922.537563541664</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>44922.537563541664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="4">
+        <v>44777.35277391204</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="4">
+        <v>44922.537970590274</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>44922.537970590274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44924.613161400463</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>44924.61316148148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="4">
+        <v>44924.613161400463</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="4">
+        <v>44924.613337893519</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>44924.613337893519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="4">
+        <v>44925.345440879631</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>44925.345440949073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="4">
+        <v>44925.345440879631</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="4">
+        <v>44925.345547210651</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>44925.345547210651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="4">
+        <v>44937.229702280092</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>44937.229703067133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="4">
+        <v>44937.229702280092</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="4">
+        <v>44937.229848182869</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>44937.229848182869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="4">
+        <v>44943.586597719906</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>44943.586597893518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="4">
+        <v>44943.586597719906</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="4">
+        <v>44943.58670821759</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>44943.58670821759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="4">
+        <v>44984.328555983797</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>44984.328556296299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="4">
+        <v>44984.328555983797</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="4">
+        <v>44984.328655150464</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>44984.328655150464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="4">
+        <v>44985.402285937504</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>44985.402285983793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="4">
+        <v>44985.402285937504</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="4">
+        <v>44985.40236576389</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>44985.40236576389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="F69" s="4">
+        <v>44986.343972141207</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>44986.343972187497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="4">
+        <v>44986.343972141207</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="4">
+        <v>44986.344617060182</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>44986.344617060182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="4">
+        <v>44986.451430127316</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>44986.451430196757</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="4">
+        <v>44986.451430127316</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="4">
+        <v>44986.451510289349</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>44986.451510289349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4">
+        <v>44792.453184120372</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="4">
+        <v>44792.453261666669</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>44996.499343402778</v>
+      </c>
+      <c r="K73" s="4">
+        <v>44996.499343402778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4">
+        <v>44792.446475902776</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="4">
+        <v>44792.446569849541</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>44996.499421168985</v>
+      </c>
+      <c r="K74" s="4">
+        <v>44996.499421168985</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="4">
+        <v>44996.499690138888</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>44996.499690243058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="4">
+        <v>44996.499690138888</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="4">
+        <v>44996.499778900463</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>44996.499778900463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="4">
+        <v>44996.500726909719</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>44996.500726967592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="4">
+        <v>44996.500726909719</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="4">
+        <v>44996.500804583331</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>44996.500804583331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="4">
+        <v>45020.42411630787</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>45020.424117256945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="4">
+        <v>45020.42411630787</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="4">
+        <v>45020.424494525461</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>45020.424494525461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="4">
+        <v>45020.478705891204</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>45020.478705937501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="4">
+        <v>45020.478705891204</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="4">
+        <v>45020.478828472224</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>45020.478828472224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="4">
+        <v>45021.453948333336</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>45021.453948379632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="4">
+        <v>45021.453948333336</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="4">
+        <v>45021.454148020835</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>45021.454148020835</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="4">
+        <v>45055.301987141203</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>45055.301988148145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="4">
+        <v>45055.301987141203</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="4">
+        <v>45055.302264953702</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>45055.302264953702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="4">
+        <v>45055.476617916669</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>45055.476617974535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="4">
+        <v>45055.476617916669</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="4">
+        <v>45055.476886076387</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>45055.476886076387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="4">
+        <v>45056.681829212961</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>45056.681829247682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="4">
+        <v>45056.681829212961</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="4">
+        <v>45056.681901249998</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <v>45056.681901249998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="4">
+        <v>45057.29177275463</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>45057.291772800927</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="4">
+        <v>45057.29177275463</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="4">
+        <v>45057.292029108794</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>45057.292029108794</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="4">
+        <v>45058.249122754627</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>45058.24912349537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="4">
+        <v>45058.249122754627</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="4">
+        <v>45058.249182430554</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>45058.249182430554</v>
       </c>
     </row>
   </sheetData>
